--- a/data/trans_camb/P16A05-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16A05-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P16A05-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16A05-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,2</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,78</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,54</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,34</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,96</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,83</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,08</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,31; 2,87</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,33; 2,89</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,75; 6,84</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,74; 5,1</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,88; 7,16</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,39; 13,25</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,32; 3,54</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,05; 4,52</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,26; 10,38</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,36%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>92,57%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,03%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>55,64%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>126,67%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,79%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,17%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>123,13%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,76; 75,37</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,72; 81,12</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>31,07; 185,84</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,2; 69,56</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,73; 98,46</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>77,58; 182,13</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,23; 58,6</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,19; 75,84</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>84,6; 175,63</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,7</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,61</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,42</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,79</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,79</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,25</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,77</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,15; 2,12</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,79; 2,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,65; 3,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,15; 2,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,38; 4,33</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,3; 4,15</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,39; 2,02</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,39; 3,14</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,8; 3,53</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>72,93%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>118,82%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>182,47%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,82%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>74,66%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>74,69%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>46,73%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>88,14%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>108,45%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,25; 192,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>39,18; 248,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>84,02; 360,4</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,85; 83,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>29,61; 143,11</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>29,43; 143,86</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,01; 90,3</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>46,92; 146,97</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>61,39; 160,9</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,76</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,26</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,44; 3,37</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,54; 2,12</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,81; 1,62</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,58; 3,31</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,33; 1,96</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,41; 2,3</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,77; 2,46</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,45; 1,42</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,17; 1,5</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,06%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,61%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,66%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,78%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,35%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,25%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,3%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,24%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,92%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,41; 217,51</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,88; 146,41</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,46; 109,59</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,83; 196,18</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,18; 119,57</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,72; 132,97</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,91; 123,94</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,5; 75,99</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,81; 78,82</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,8</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,22</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,64</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,65</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,13; 1,58</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,02; 1,74</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,06; 2,88</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,58; 2,92</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,13; 3,53</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,95; 4,38</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,6; 2,12</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,85; 2,3</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,92; 3,44</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,24%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,53%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>73,39%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,85%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,23%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>60,34%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,84%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,12%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>66,7%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,2; 70,66</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,73; 77,15</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>33,81; 129,45</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,5; 59,28</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,43; 71,1</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>33,03; 91,92</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,22; 56,2</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,29; 63,06</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>43,49; 94,88</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A05-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16A05-Estudios-trans_camb.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,2</t>
+          <t>3,92</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>10,34</t>
+          <t>9,86</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>8,08</t>
+          <t>7,57</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,75; 6,84</t>
+          <t>1,44; 6,39</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,39; 13,25</t>
+          <t>6,99; 12,52</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,26; 10,38</t>
+          <t>5,71; 9,63</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>92,57%</t>
+          <t>86,53%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>126,67%</t>
+          <t>120,87%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>123,13%</t>
+          <t>115,34%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>31,07; 185,84</t>
+          <t>25,5; 174,07</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>77,58; 182,13</t>
+          <t>73,74; 172,1</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>84,6; 175,63</t>
+          <t>78,15; 163,22</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,61</t>
+          <t>2,17</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,79</t>
+          <t>2,22</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,77</t>
+          <t>2,21</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,65; 3,73</t>
+          <t>0,91; 3,3</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,3; 4,15</t>
+          <t>0,38; 3,69</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,8; 3,53</t>
+          <t>1,01; 3,04</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>182,47%</t>
+          <t>151,11%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>74,69%</t>
+          <t>59,26%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>108,45%</t>
+          <t>86,81%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>84,02; 360,4</t>
+          <t>52,67; 310,21</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>29,43; 143,86</t>
+          <t>8,67; 120,06</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>61,39; 160,9</t>
+          <t>35,18; 136,94</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>0,25</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 1,62</t>
+          <t>-1,8; 1,62</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 2,3</t>
+          <t>-1,43; 2,21</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 1,5</t>
+          <t>-1,16; 1,48</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-0,66%</t>
+          <t>0,12%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>17,25%</t>
+          <t>16,22%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>9,92%</t>
+          <t>9,42%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-51,46; 109,59</t>
+          <t>-51,7; 103,96</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-36,72; 132,97</t>
+          <t>-37,87; 132,49</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-35,81; 78,82</t>
+          <t>-35,53; 78,13</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,89</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,22</t>
+          <t>2,63</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>2,65</t>
+          <t>2,11</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,06; 2,88</t>
+          <t>0,39; 2,57</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,95; 4,38</t>
+          <t>0,94; 3,8</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,92; 3,44</t>
+          <t>1,15; 2,96</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>73,39%</t>
+          <t>59,11%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>60,34%</t>
+          <t>49,25%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>66,7%</t>
+          <t>53,0%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>33,81; 129,45</t>
+          <t>14,77; 114,39</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>33,03; 91,92</t>
+          <t>17,37; 79,24</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>43,49; 94,88</t>
+          <t>27,23; 80,41</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A05-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16A05-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 2,87</t>
+          <t>-1,08; 3,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 2,89</t>
+          <t>-1,38; 2,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,44; 6,39</t>
+          <t>1,65; 6,8</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,74; 5,1</t>
+          <t>0,59; 4,92</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,88; 7,16</t>
+          <t>1,82; 7,34</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,99; 12,52</t>
+          <t>7,51; 13,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,32; 3,54</t>
+          <t>0,48; 3,62</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,05; 4,52</t>
+          <t>1,12; 4,66</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,71; 9,63</t>
+          <t>5,87; 9,84</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-25,76; 75,37</t>
+          <t>-21,39; 87,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-25,72; 81,12</t>
+          <t>-26,13; 74,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>25,5; 174,07</t>
+          <t>27,84; 180,81</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,2; 69,56</t>
+          <t>6,5; 71,15</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>20,73; 98,46</t>
+          <t>19,42; 102,81</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>73,74; 172,1</t>
+          <t>80,66; 180,57</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,23; 58,6</t>
+          <t>5,85; 61,01</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,19; 75,84</t>
+          <t>15,96; 80,24</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>78,15; 163,22</t>
+          <t>80,09; 169,83</t>
         </is>
       </c>
     </row>
@@ -901,12 +901,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,15; 2,12</t>
+          <t>0,04; 1,97</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,79; 2,71</t>
+          <t>0,85; 2,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -916,32 +916,32 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 2,77</t>
+          <t>0,02; 2,78</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,38; 4,33</t>
+          <t>1,25; 4,23</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,38; 3,69</t>
+          <t>0,27; 3,74</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,39; 2,02</t>
+          <t>0,31; 2,01</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,39; 3,14</t>
+          <t>1,38; 3,18</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,01; 3,04</t>
+          <t>1,14; 3,16</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,25; 192,13</t>
+          <t>-3,01; 183,27</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>39,18; 248,0</t>
+          <t>43,41; 271,92</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>52,67; 310,21</t>
+          <t>46,61; 301,34</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 83,15</t>
+          <t>-1,08; 90,27</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>29,61; 143,11</t>
+          <t>27,18; 140,24</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,67; 120,06</t>
+          <t>6,12; 121,23</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>11,01; 90,3</t>
+          <t>9,87; 91,96</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>46,92; 146,97</t>
+          <t>44,18; 144,59</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>35,18; 136,94</t>
+          <t>38,73; 148,31</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 3,37</t>
+          <t>-1,26; 3,63</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 2,12</t>
+          <t>-1,79; 2,34</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 1,62</t>
+          <t>-1,93; 1,68</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 3,31</t>
+          <t>-1,41; 3,34</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 1,96</t>
+          <t>-2,4; 1,89</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 2,21</t>
+          <t>-1,64; 2,17</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 2,46</t>
+          <t>-0,89; 2,61</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 1,42</t>
+          <t>-1,45; 1,44</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 1,48</t>
+          <t>-1,14; 1,51</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-47,41; 217,51</t>
+          <t>-45,78; 230,83</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-49,88; 146,41</t>
+          <t>-52,39; 151,87</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-51,7; 103,96</t>
+          <t>-57,39; 119,37</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-42,83; 196,18</t>
+          <t>-39,82; 177,4</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-62,18; 119,57</t>
+          <t>-60,37; 100,99</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-37,87; 132,49</t>
+          <t>-38,7; 138,72</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-24,91; 123,94</t>
+          <t>-27,12; 127,66</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-43,5; 75,99</t>
+          <t>-44,98; 76,18</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-35,53; 78,13</t>
+          <t>-33,32; 82,32</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 1,58</t>
+          <t>-0,06; 1,67</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,02; 1,74</t>
+          <t>-0,06; 1,7</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,39; 2,57</t>
+          <t>0,37; 2,51</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,58; 2,92</t>
+          <t>0,62; 2,89</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,13; 3,53</t>
+          <t>1,12; 3,49</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,94; 3,8</t>
+          <t>1,06; 3,86</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,6; 2,12</t>
+          <t>0,59; 2,06</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,85; 2,3</t>
+          <t>0,91; 2,39</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,15; 2,96</t>
+          <t>1,19; 2,95</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-6,2; 70,66</t>
+          <t>-3,03; 76,02</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,73; 77,15</t>
+          <t>-0,51; 78,59</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>14,77; 114,39</t>
+          <t>12,55; 107,87</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>9,5; 59,28</t>
+          <t>9,97; 59,83</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>17,43; 71,1</t>
+          <t>17,91; 71,74</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>17,37; 79,24</t>
+          <t>19,07; 80,47</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>13,22; 56,2</t>
+          <t>12,47; 55,97</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>19,29; 63,06</t>
+          <t>20,21; 64,36</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>27,23; 80,41</t>
+          <t>29,08; 80,83</t>
         </is>
       </c>
     </row>
